--- a/Task1(v4)/susijeDT.xlsx
+++ b/Task1(v4)/susijeDT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{3B16BA2E-397F-4064-969A-C8192C108592}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{A3725F7D-7C0B-43EA-9A68-60C4B25D6DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=2r1mqp85</t>
+    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=-fa58i7sxd</t>
   </si>
   <si>
-    <t>/portal/legalAct/lt/TAK/a3497810124311e88a05839ea3846d8e?jfwid=2r1mqp8i</t>
+    <t>/portal/legalAct/lt/TAK/a3497810124311e88a05839ea3846d8e?jfwid=-fa58i7swi</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7CCBCA-E2CC-4B3E-A369-4DF8C2347BCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0232524-9CC9-47CC-94E5-C4B63EE0D883}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Task1(v4)/susijeDT.xlsx
+++ b/Task1(v4)/susijeDT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{A3725F7D-7C0B-43EA-9A68-60C4B25D6DD0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{7C478AB2-93C7-433F-93BE-7D3D9544D15E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=-fa58i7sxd</t>
+    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=2r1mqx5o</t>
   </si>
   <si>
-    <t>/portal/legalAct/lt/TAK/a3497810124311e88a05839ea3846d8e?jfwid=-fa58i7swi</t>
+    <t>/portal/legalAct/lt/TAK/a3497810124311e88a05839ea3846d8e?jfwid=2r1mqx76</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0232524-9CC9-47CC-94E5-C4B63EE0D883}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04260116-18E8-46E9-9B46-68961B8AEEAE}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Task1(v4)/susijeDT.xlsx
+++ b/Task1(v4)/susijeDT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{7C478AB2-93C7-433F-93BE-7D3D9544D15E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{A98CADE4-9B5B-4550-9996-08292A0C735B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=2r1mqx5o</t>
+    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=-fa58i7n9g</t>
   </si>
   <si>
-    <t>/portal/legalAct/lt/TAK/a3497810124311e88a05839ea3846d8e?jfwid=2r1mqx76</t>
+    <t>/portal/legalAct/lt/TAK/a3497810124311e88a05839ea3846d8e?jfwid=-fa58i7n8k</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04260116-18E8-46E9-9B46-68961B8AEEAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D038AA9B-6A73-4FAC-BD25-435965D95AFC}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Task1(v4)/susijeDT.xlsx
+++ b/Task1(v4)/susijeDT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{A98CADE4-9B5B-4550-9996-08292A0C735B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{CBCBE3B2-8A62-409A-96D8-56D2FE332BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=-fa58i7n9g</t>
+    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=2r1mrth1</t>
   </si>
   <si>
-    <t>/portal/legalAct/lt/TAK/a3497810124311e88a05839ea3846d8e?jfwid=-fa58i7n8k</t>
+    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=2r1mrth1</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=2r1mrth1</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/a3497810124311e88a05839ea3846d8e?jfwid=2r1mrthv</t>
   </si>
 </sst>
 </file>
@@ -380,8 +386,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D038AA9B-6A73-4FAC-BD25-435965D95AFC}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7525497F-3381-45DA-82BE-2B317D14BBFB}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,6 +403,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Task1(v4)/susijeDT.xlsx
+++ b/Task1(v4)/susijeDT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=2r1mrth1</t>
   </si>
@@ -36,6 +36,126 @@
   </si>
   <si>
     <t>/portal/legalAct/lt/TAK/a3497810124311e88a05839ea3846d8e?jfwid=2r1mrthv</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=2r1msdi6</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=2r1msdi6</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=2r1msdi6</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=2r1msdi6</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=2r1msdus</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=2r1msdus</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=2r1msdus</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=2r1msdus</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=-fa58i691g</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=-fa58i691g</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=-fa58i691g</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=-fa58i691g</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=-fa58i68yj</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=-fa58i68yj</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=-fa58i68yj</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=-fa58i68yj</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=2r1msed6</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=2r1msed6</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=2r1msed6</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=2r1msed6</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=2r1msehm</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=2r1msehm</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=2r1msehm</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=2r1msehm</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=-fa58i68i0</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=-fa58i68i0</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=-fa58i68i0</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=-fa58i68i0</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=-fa58i67c5</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=-fa58i67c5</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=-fa58i67c5</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=-fa58i67c5</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=-fa58i67ar</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=-fa58i67ar</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=-fa58i67ar</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=-fa58i67ar</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=-fa58i65y3</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=-fa58i65y3</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=-fa58i65y3</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=-fa58i65y3</t>
   </si>
 </sst>
 </file>
@@ -387,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7525497F-3381-45DA-82BE-2B317D14BBFB}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,6 +533,206 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Task1(v4)/susijeDT.xlsx
+++ b/Task1(v4)/susijeDT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{CBCBE3B2-8A62-409A-96D8-56D2FE332BF2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{AFA108A2-D4A3-4FD4-AB5D-68F67B9AAED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,138 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=2r1mrth1</t>
+    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=-fa58i62er</t>
   </si>
   <si>
-    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=2r1mrth1</t>
+    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=-fa58i62er</t>
   </si>
   <si>
-    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=2r1mrth1</t>
+    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=-fa58i62er</t>
   </si>
   <si>
-    <t>/portal/legalAct/lt/TAK/a3497810124311e88a05839ea3846d8e?jfwid=2r1mrthv</t>
+    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=-fa58i62er</t>
   </si>
   <si>
-    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=2r1msdi6</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=2r1msdi6</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=2r1msdi6</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=2r1msdi6</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=2r1msdus</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=2r1msdus</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=2r1msdus</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=2r1msdus</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=-fa58i691g</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=-fa58i691g</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=-fa58i691g</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=-fa58i691g</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=-fa58i68yj</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=-fa58i68yj</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=-fa58i68yj</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=-fa58i68yj</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=2r1msed6</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=2r1msed6</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=2r1msed6</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=2r1msed6</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=2r1msehm</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=2r1msehm</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=2r1msehm</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=2r1msehm</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=-fa58i68i0</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=-fa58i68i0</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=-fa58i68i0</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=-fa58i68i0</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=-fa58i67c5</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=-fa58i67c5</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=-fa58i67c5</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=-fa58i67c5</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=-fa58i67ar</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=-fa58i67ar</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=-fa58i67ar</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=-fa58i67ar</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=-fa58i65y3</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=-fa58i65y3</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=-fa58i65y3</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=-fa58i65y3</t>
+    <t>/portal/legalAct/lt/TAK/a3497810124311e88a05839ea3846d8e?jfwid=-fa58i62bp</t>
   </si>
 </sst>
 </file>
@@ -506,8 +389,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7525497F-3381-45DA-82BE-2B317D14BBFB}">
-  <dimension ref="A1:A44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A03FD00-1F02-454E-9827-D58186A84C22}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,201 +421,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Task1(v4)/susijeDT.xlsx
+++ b/Task1(v4)/susijeDT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{AFA108A2-D4A3-4FD4-AB5D-68F67B9AAED2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{D81AE309-5DEB-44D0-A839-D268B3BB5ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,26 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=-fa58i62er</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=-fa58i62er</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=-fa58i62er</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=-fa58i62er</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/a3497810124311e88a05839ea3846d8e?jfwid=-fa58i62bp</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,39 +369,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A03FD00-1F02-454E-9827-D58186A84C22}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B67B3D-AC12-4BE9-B7D8-75842382F6C0}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Task1(v4)/susijeDT.xlsx
+++ b/Task1(v4)/susijeDT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{D81AE309-5DEB-44D0-A839-D268B3BB5ADA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{267ECABD-737E-4099-94DB-2A0B71828A39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B67B3D-AC12-4BE9-B7D8-75842382F6C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C842196E-07A2-4966-B282-7FB94E02E731}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Task1(v4)/susijeDT.xlsx
+++ b/Task1(v4)/susijeDT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{267ECABD-737E-4099-94DB-2A0B71828A39}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{B3DA78AD-118E-4E52-BEDD-1B13910EC056}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=-fa58i4ew6</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=-fa58i4ew6</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/60683820179c11e88a05839ea3846d8e?jfwid=-fa58i4ew6</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=-fa58i4ew6</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=-fa58i4ew6</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/a25b3360171811e88a05839ea3846d8e?jfwid=-fa58i4ete</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/cfb6bf3016fc11e88a05839ea3846d8e?jfwid=-fa58i4ete</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/951fd0a216fc11e88a05839ea3846d8e?jfwid=-fa58i4ete</t>
+  </si>
+  <si>
+    <t>/portal/legalAct/lt/TAK/a3497810124311e88a05839ea3846d8e?jfwid=-fa58i4ete</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,13 +401,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C842196E-07A2-4966-B282-7FB94E02E731}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684E8376-D8FC-48E5-9A70-321248413FBB}">
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Task1(v4)/susijeDT.xlsx
+++ b/Task1(v4)/susijeDT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{B3DA78AD-118E-4E52-BEDD-1B13910EC056}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" xr2:uid="{D94CFAC0-2151-4FFD-85F2-938538761322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,33 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=-fa58i4ew6</t>
+    <t>/portal/legalAct/lt/TAK/f2b497c0164b11e88a05839ea3846d8e?jfwid=-fa58i4aru</t>
   </si>
   <si>
-    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=-fa58i4ew6</t>
+    <t>/portal/legalAct/lt/TAK/7561b82110ba11e88a05839ea3846d8e?jfwid=-fa58i4aru</t>
   </si>
   <si>
-    <t>/portal/legalAct/lt/TAK/60683820179c11e88a05839ea3846d8e?jfwid=-fa58i4ew6</t>
+    <t>/portal/legalAct/lt/TAK/60683820179c11e88a05839ea3846d8e?jfwid=-fa58i4aru</t>
   </si>
   <si>
-    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=-fa58i4ew6</t>
+    <t>/portal/legalAct/lt/TAK/57e8faf016dd11e88a05839ea3846d8e?jfwid=-fa58i4aru</t>
   </si>
   <si>
-    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=-fa58i4ew6</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/a25b3360171811e88a05839ea3846d8e?jfwid=-fa58i4ete</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/cfb6bf3016fc11e88a05839ea3846d8e?jfwid=-fa58i4ete</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/951fd0a216fc11e88a05839ea3846d8e?jfwid=-fa58i4ete</t>
-  </si>
-  <si>
-    <t>/portal/legalAct/lt/TAK/a3497810124311e88a05839ea3846d8e?jfwid=-fa58i4ete</t>
+    <t>/portal/legalAct/lt/TAK/da86b830161011e88a05839ea3846d8e?jfwid=-fa58i4aru</t>
   </si>
 </sst>
 </file>
@@ -401,8 +389,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684E8376-D8FC-48E5-9A70-321248413FBB}">
-  <dimension ref="A1:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF6C256-199E-40CE-850F-B29B85AD3F1F}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -433,26 +421,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
